--- a/p2/Planilha sem título.xlsx
+++ b/p2/Planilha sem título.xlsx
@@ -321,7 +321,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>0.184774</v>
+        <v>0.202814</v>
       </c>
       <c r="B3" s="3" t="e">
         <v>#DIV/0!</v>
@@ -329,1395 +329,1251 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>0.337105</v>
+        <v>0.309585</v>
       </c>
       <c r="B4" s="2">
-        <v>-32.2152</v>
+        <v>-19.5466</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>0.489248</v>
+        <v>0.511987</v>
       </c>
       <c r="B5" s="2">
-        <v>-29.4263</v>
+        <v>-18.6199</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>0.700257</v>
+        <v>0.711587</v>
       </c>
       <c r="B6" s="2">
-        <v>-28.3544</v>
+        <v>-19.8371</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>0.888058</v>
+        <v>0.910895</v>
       </c>
       <c r="B7" s="2">
-        <v>-27.4324</v>
+        <v>-20.9545</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>1.103118</v>
+        <v>1.111917</v>
       </c>
       <c r="B8" s="2">
-        <v>-26.9482</v>
+        <v>-21.9676</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>1.304857</v>
+        <v>1.311505</v>
       </c>
       <c r="B9" s="2">
-        <v>-27.2725</v>
+        <v>-22.5935</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>1.499503</v>
+        <v>1.511438</v>
       </c>
       <c r="B10" s="2">
-        <v>-30.1037</v>
+        <v>-23.1646</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>1.703429</v>
+        <v>1.709362</v>
       </c>
       <c r="B11" s="2">
-        <v>-28.2429</v>
+        <v>-22.9265</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>1.897655</v>
+        <v>1.912455</v>
       </c>
       <c r="B12" s="2">
-        <v>-29.6605</v>
+        <v>-24.3216</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>2.103007</v>
+        <v>2.112215</v>
       </c>
       <c r="B13" s="2">
-        <v>-29.8549</v>
+        <v>-24.7969</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>2.303106</v>
+        <v>2.311409</v>
       </c>
       <c r="B14" s="2">
-        <v>-30.9385</v>
+        <v>-24.4746</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>2.50351</v>
+        <v>2.510875</v>
       </c>
       <c r="B15" s="2">
-        <v>-30.405</v>
+        <v>-24.0994</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>2.699308</v>
+        <v>2.712615</v>
       </c>
       <c r="B16" s="2">
-        <v>-34.4918</v>
+        <v>-23.7691</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>2.904057</v>
+        <v>2.910747</v>
       </c>
       <c r="B17" s="2">
-        <v>-38.2719</v>
+        <v>-23.2574</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>3.097038</v>
+        <v>3.111058</v>
       </c>
       <c r="B18" s="2">
-        <v>-36.4121</v>
+        <v>-23.0838</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>3.303269</v>
+        <v>3.308811</v>
       </c>
       <c r="B19" s="2">
-        <v>-33.9187</v>
+        <v>-26.3053</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>3.503882</v>
+        <v>3.510728</v>
       </c>
       <c r="B20" s="2">
-        <v>-35.7381</v>
+        <v>-26.1989</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>3.694141</v>
+        <v>3.711332</v>
       </c>
       <c r="B21" s="2">
-        <v>-36.6179</v>
+        <v>-27.5954</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>3.909512</v>
+        <v>3.908856</v>
       </c>
       <c r="B22" s="2">
-        <v>-37.9116</v>
+        <v>-28.9584</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>4.10374</v>
+        <v>4.111181</v>
       </c>
       <c r="B23" s="2">
-        <v>-39.2783</v>
+        <v>-28.3973</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>4.302817</v>
+        <v>4.310838</v>
       </c>
       <c r="B24" s="2">
-        <v>-40.3479</v>
+        <v>-24.834</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>4.488999</v>
+        <v>4.510702</v>
       </c>
       <c r="B25" s="2">
-        <v>-39.6542</v>
+        <v>-25.7942</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>4.600092</v>
+        <v>4.711291</v>
       </c>
       <c r="B26" s="2">
-        <v>-39.3434</v>
+        <v>-25.8797</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>4.803445</v>
+        <v>4.911876</v>
       </c>
       <c r="B27" s="2">
-        <v>-41.8459</v>
+        <v>-25.8439</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>5.003869</v>
+        <v>5.112234</v>
       </c>
       <c r="B28" s="2">
-        <v>-43.2013</v>
+        <v>-24.6293</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>5.200211</v>
+        <v>5.313163</v>
       </c>
       <c r="B29" s="2">
-        <v>-47.0072</v>
+        <v>-28.5472</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>5.396251</v>
+        <v>5.510624</v>
       </c>
       <c r="B30" s="2">
-        <v>-46.5682</v>
+        <v>-28.5354</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>5.60475</v>
+        <v>5.710875</v>
       </c>
       <c r="B31" s="2">
-        <v>-46.0327</v>
+        <v>-28.0234</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>5.803459</v>
+        <v>5.908809</v>
       </c>
       <c r="B32" s="2">
-        <v>-46.2605</v>
+        <v>-28.9721</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>6.004272</v>
+        <v>6.118871</v>
       </c>
       <c r="B33" s="2">
-        <v>-46.2155</v>
+        <v>-30.1847</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>6.194649</v>
+        <v>6.308721</v>
       </c>
       <c r="B34" s="2">
-        <v>-47.6401</v>
+        <v>-29.5278</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>6.404442</v>
+        <v>6.509511</v>
       </c>
       <c r="B35" s="2">
-        <v>-47.0443</v>
+        <v>-27.9979</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>6.606218</v>
+        <v>6.710881</v>
       </c>
       <c r="B36" s="2">
-        <v>-49.2361</v>
+        <v>-27.5587</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>6.803746</v>
+        <v>6.91985</v>
       </c>
       <c r="B37" s="2">
-        <v>-45.7648</v>
+        <v>-27.4628</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>6.988306</v>
+        <v>7.109062</v>
       </c>
       <c r="B38" s="2">
-        <v>-48.8662</v>
+        <v>-32.1574</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>7.202953</v>
+        <v>7.308949</v>
       </c>
       <c r="B39" s="2">
-        <v>-50.6776</v>
+        <v>-30.9159</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>7.402887</v>
+        <v>7.51429</v>
       </c>
       <c r="B40" s="2">
-        <v>-48.7662</v>
+        <v>-29.2497</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>7.604312</v>
+        <v>7.712401</v>
       </c>
       <c r="B41" s="2">
-        <v>-48.6587</v>
+        <v>-29.2244</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>7.794133</v>
+        <v>7.909967</v>
       </c>
       <c r="B42" s="2">
-        <v>-46.4769</v>
+        <v>-30.0604</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>8.004062</v>
+        <v>8.114351</v>
       </c>
       <c r="B43" s="2">
-        <v>-49.2816</v>
+        <v>-30.8072</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>8.199897</v>
+        <v>8.307462</v>
       </c>
       <c r="B44" s="2">
-        <v>-50.9085</v>
+        <v>-30.6437</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>8.403539</v>
+        <v>8.50596</v>
       </c>
       <c r="B45" s="2">
-        <v>-48.0533</v>
+        <v>-31.7607</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>8.597187</v>
+        <v>8.706178</v>
       </c>
       <c r="B46" s="2">
-        <v>-51.5607</v>
+        <v>-31.8098</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>8.799375</v>
+        <v>8.907542</v>
       </c>
       <c r="B47" s="2">
-        <v>-50.8619</v>
+        <v>-30.8781</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>9.004391</v>
+        <v>9.10601</v>
       </c>
       <c r="B48" s="2">
-        <v>-50.0451</v>
+        <v>-32.7873</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>9.203236</v>
+        <v>9.305822</v>
       </c>
       <c r="B49" s="2">
-        <v>-48.9363</v>
+        <v>-32.9117</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>9.400379</v>
+        <v>9.505926</v>
       </c>
       <c r="B50" s="2">
-        <v>-48.8381</v>
+        <v>-32.6742</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>9.604024</v>
+        <v>9.705979</v>
       </c>
       <c r="B51" s="2">
-        <v>-50.9883</v>
+        <v>-33.3346</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>9.804364</v>
+        <v>9.905891</v>
       </c>
       <c r="B52" s="2">
-        <v>-49.4317</v>
+        <v>-37.1227</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>9.994488</v>
+        <v>10.10609</v>
       </c>
       <c r="B53" s="2">
-        <v>-48.791</v>
+        <v>-39.3032</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>10.20003</v>
+        <v>10.30597</v>
       </c>
       <c r="B54" s="2">
-        <v>-50.3868</v>
+        <v>-36.8979</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>10.4042</v>
+        <v>10.50591</v>
       </c>
       <c r="B55" s="2">
-        <v>-51.1636</v>
+        <v>-41.8484</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>10.60384</v>
+        <v>10.7059</v>
       </c>
       <c r="B56" s="2">
-        <v>-50.6072</v>
+        <v>-35.8811</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>10.80295</v>
+        <v>10.91049</v>
       </c>
       <c r="B57" s="2">
-        <v>-49.6279</v>
+        <v>-35.6854</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>10.99366</v>
+        <v>11.10981</v>
       </c>
       <c r="B58" s="2">
-        <v>-51.5221</v>
+        <v>-37.645</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>11.20408</v>
+        <v>11.31215</v>
       </c>
       <c r="B59" s="2">
-        <v>-51.0989</v>
+        <v>-39.0543</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>11.4039</v>
+        <v>11.51174</v>
       </c>
       <c r="B60" s="2">
-        <v>-50.6925</v>
+        <v>-36.0719</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>11.60264</v>
+        <v>11.70968</v>
       </c>
       <c r="B61" s="2">
-        <v>-50.5761</v>
+        <v>-35.9204</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>11.79464</v>
+        <v>11.91323</v>
       </c>
       <c r="B62" s="2">
-        <v>-49.8327</v>
+        <v>-40.4309</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>12.00454</v>
+        <v>12.11288</v>
       </c>
       <c r="B63" s="2">
-        <v>-51.0163</v>
+        <v>-38.8997</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>12.20368</v>
+        <v>12.30932</v>
       </c>
       <c r="B64" s="2">
-        <v>-51.838</v>
+        <v>-42.9251</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>12.38801</v>
+        <v>12.5128</v>
       </c>
       <c r="B65" s="2">
-        <v>-52.5909</v>
+        <v>-42.1692</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>12.59143</v>
+        <v>12.71319</v>
       </c>
       <c r="B66" s="2">
-        <v>-52.5356</v>
+        <v>-42.2873</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>12.79185</v>
+        <v>12.91165</v>
       </c>
       <c r="B67" s="2">
-        <v>-50.5329</v>
+        <v>-40.3432</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>12.99713</v>
+        <v>13.11198</v>
       </c>
       <c r="B68" s="2">
-        <v>-49.859</v>
+        <v>-40.2174</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>13.19203</v>
+        <v>13.31286</v>
       </c>
       <c r="B69" s="2">
-        <v>-51.6347</v>
+        <v>-41.567</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>13.39334</v>
+        <v>13.5127</v>
       </c>
       <c r="B70" s="2">
-        <v>-52.4121</v>
+        <v>-44.6609</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>13.58792</v>
+        <v>13.71242</v>
       </c>
       <c r="B71" s="2">
-        <v>-52.5923</v>
+        <v>-43.9445</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>13.78868</v>
+        <v>13.91158</v>
       </c>
       <c r="B72" s="2">
-        <v>-53.7486</v>
+        <v>-43.2714</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>13.98833</v>
+        <v>14.11265</v>
       </c>
       <c r="B73" s="2">
-        <v>-53.6858</v>
+        <v>-42.0189</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>14.18768</v>
+        <v>14.3121</v>
       </c>
       <c r="B74" s="2">
-        <v>-54.5925</v>
+        <v>-42.5228</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>14.38773</v>
+        <v>14.51185</v>
       </c>
       <c r="B75" s="2">
-        <v>-55.5386</v>
+        <v>-43.7765</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <v>14.58775</v>
+        <v>14.71098</v>
       </c>
       <c r="B76" s="2">
-        <v>-55.9783</v>
+        <v>-44.3651</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>14.78759</v>
+        <v>14.9091</v>
       </c>
       <c r="B77" s="2">
-        <v>-52.243</v>
+        <v>-44.5946</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <v>14.98867</v>
+        <v>15.11393</v>
       </c>
       <c r="B78" s="2">
-        <v>-55.0937</v>
+        <v>-46.222</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <v>15.18845</v>
+        <v>15.30603</v>
       </c>
       <c r="B79" s="2">
-        <v>-56.0565</v>
+        <v>-46.9851</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>15.388</v>
+        <v>15.50779</v>
       </c>
       <c r="B80" s="2">
-        <v>-55.9716</v>
+        <v>-46.3151</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>15.59251</v>
+        <v>15.71765</v>
       </c>
       <c r="B81" s="2">
-        <v>-56.7894</v>
+        <v>-45.052</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>15.79035</v>
+        <v>15.90966</v>
       </c>
       <c r="B82" s="2">
-        <v>-56.3926</v>
+        <v>-47.1783</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <v>15.99316</v>
+        <v>16.10982</v>
       </c>
       <c r="B83" s="2">
-        <v>-56.5289</v>
+        <v>-47.8336</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <v>16.20853</v>
+        <v>16.31036</v>
       </c>
       <c r="B84" s="2">
-        <v>-56.5837</v>
+        <v>-49.8995</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2">
-        <v>16.4074</v>
+        <v>16.51259</v>
       </c>
       <c r="B85" s="2">
-        <v>-55.8845</v>
+        <v>-48.3326</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2">
-        <v>16.60088</v>
+        <v>16.71213</v>
       </c>
       <c r="B86" s="2">
-        <v>-55.5896</v>
+        <v>-50.7262</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2">
-        <v>16.80285</v>
+        <v>16.9128</v>
       </c>
       <c r="B87" s="2">
-        <v>-56.1165</v>
+        <v>-49.8904</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2">
-        <v>17.00505</v>
+        <v>17.10953</v>
       </c>
       <c r="B88" s="2">
-        <v>-55.4783</v>
+        <v>-49.961</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2">
-        <v>17.20422</v>
+        <v>17.30935</v>
       </c>
       <c r="B89" s="2">
-        <v>-54.9714</v>
+        <v>-50.7604</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2">
-        <v>17.39057</v>
+        <v>17.5094</v>
       </c>
       <c r="B90" s="2">
-        <v>-56.0135</v>
+        <v>-49.2445</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2">
-        <v>17.59405</v>
+        <v>17.71187</v>
       </c>
       <c r="B91" s="2">
-        <v>-57.3869</v>
+        <v>-49.0401</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2">
-        <v>17.80412</v>
+        <v>17.91182</v>
       </c>
       <c r="B92" s="2">
-        <v>-58.6729</v>
+        <v>-48.3571</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2">
-        <v>17.9975</v>
+        <v>18.11253</v>
       </c>
       <c r="B93" s="2">
-        <v>-60.4735</v>
+        <v>-48.8954</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2">
-        <v>18.19853</v>
+        <v>18.31264</v>
       </c>
       <c r="B94" s="2">
-        <v>-60.2555</v>
+        <v>-48.8897</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2">
-        <v>18.40393</v>
+        <v>18.51177</v>
       </c>
       <c r="B95" s="2">
-        <v>-60.0457</v>
+        <v>-49.7912</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2">
-        <v>18.59188</v>
+        <v>18.71243</v>
       </c>
       <c r="B96" s="2">
-        <v>-59.7308</v>
+        <v>-51.3632</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
-        <v>18.79489</v>
+        <v>18.9129</v>
       </c>
       <c r="B97" s="2">
-        <v>-59.9637</v>
+        <v>-53.5032</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2">
-        <v>18.99939</v>
+        <v>19.11469</v>
       </c>
       <c r="B98" s="2">
-        <v>-59.5678</v>
+        <v>-51.4811</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2">
-        <v>19.20076</v>
+        <v>19.31355</v>
       </c>
       <c r="B99" s="2">
-        <v>-60.0655</v>
+        <v>-53.1232</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2">
-        <v>19.4042</v>
+        <v>19.51186</v>
       </c>
       <c r="B100" s="2">
-        <v>-60.5856</v>
+        <v>-49.2067</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2">
-        <v>19.59402</v>
+        <v>19.71186</v>
       </c>
       <c r="B101" s="2">
-        <v>-60.7164</v>
+        <v>-51.2099</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2">
-        <v>19.79657</v>
+        <v>19.91299</v>
       </c>
       <c r="B102" s="2">
-        <v>-60.3061</v>
+        <v>-51.6716</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2">
-        <v>19.99123</v>
+        <v>20.10949</v>
       </c>
       <c r="B103" s="2">
-        <v>-59.5218</v>
+        <v>-55.1041</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2">
-        <v>20.19176</v>
+        <v>20.31156</v>
       </c>
       <c r="B104" s="2">
-        <v>-59.1712</v>
+        <v>-55.1866</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2">
-        <v>20.38779</v>
+        <v>20.50931</v>
       </c>
       <c r="B105" s="2">
-        <v>-58.3848</v>
+        <v>-55.7924</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2">
-        <v>20.58788</v>
+        <v>20.70686</v>
       </c>
       <c r="B106" s="2">
-        <v>-58.0063</v>
+        <v>-56.8786</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2">
-        <v>20.78779</v>
+        <v>20.91037</v>
       </c>
       <c r="B107" s="2">
-        <v>-57.5161</v>
+        <v>-56.1204</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2">
-        <v>20.98785</v>
+        <v>21.11154</v>
       </c>
       <c r="B108" s="2">
-        <v>-57.1774</v>
+        <v>-55.0712</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2">
-        <v>21.18839</v>
+        <v>21.31313</v>
       </c>
       <c r="B109" s="2">
-        <v>-57.0136</v>
+        <v>-58.8024</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2">
-        <v>21.39328</v>
+        <v>21.51572</v>
       </c>
       <c r="B110" s="2">
-        <v>-56.4978</v>
+        <v>-53.5323</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2">
-        <v>21.59537</v>
+        <v>21.71254</v>
       </c>
       <c r="B111" s="2">
-        <v>-56.1045</v>
+        <v>-53.5435</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2">
-        <v>21.78853</v>
+        <v>21.90995</v>
       </c>
       <c r="B112" s="2">
-        <v>-56.2813</v>
+        <v>-54.1499</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2">
-        <v>21.99494</v>
+        <v>22.10637</v>
       </c>
       <c r="B113" s="2">
-        <v>-56.7116</v>
+        <v>-54.6439</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2">
-        <v>22.18782</v>
+        <v>22.31686</v>
       </c>
       <c r="B114" s="2">
-        <v>-55.4575</v>
+        <v>-54.7639</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2">
-        <v>22.38783</v>
+        <v>22.51285</v>
       </c>
       <c r="B115" s="2">
-        <v>-55.0424</v>
+        <v>-55.57</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2">
-        <v>22.58785</v>
+        <v>22.71271</v>
       </c>
       <c r="B116" s="2">
-        <v>-54.6657</v>
+        <v>-56.536</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2">
-        <v>22.79049</v>
+        <v>22.9126</v>
       </c>
       <c r="B117" s="2">
-        <v>-54.5176</v>
+        <v>-57.269</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2">
-        <v>22.98788</v>
+        <v>23.10928</v>
       </c>
       <c r="B118" s="2">
-        <v>-54.6926</v>
+        <v>-57.7275</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2">
-        <v>23.18764</v>
+        <v>23.31316</v>
       </c>
       <c r="B119" s="2">
-        <v>-54.8716</v>
+        <v>-58.2245</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2">
-        <v>23.38767</v>
+        <v>23.50888</v>
       </c>
       <c r="B120" s="2">
-        <v>-54.7598</v>
+        <v>-57.792</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2">
-        <v>23.58768</v>
+        <v>23.70761</v>
       </c>
       <c r="B121" s="2">
-        <v>-54.9307</v>
+        <v>-58.5993</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2">
-        <v>23.78889</v>
+        <v>23.91222</v>
       </c>
       <c r="B122" s="2">
-        <v>-56.1842</v>
+        <v>-59.1994</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2">
-        <v>23.98899</v>
+        <v>24.10932</v>
       </c>
       <c r="B123" s="2">
-        <v>-56.7977</v>
+        <v>-59.0279</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2">
-        <v>24.1934</v>
+        <v>24.31228</v>
       </c>
       <c r="B124" s="2">
-        <v>-60.2741</v>
+        <v>-59.8917</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2">
-        <v>24.39733</v>
+        <v>24.51596</v>
       </c>
       <c r="B125" s="2">
-        <v>-62.405</v>
+        <v>-60.0043</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2">
-        <v>24.58928</v>
+        <v>24.71491</v>
       </c>
       <c r="B126" s="2">
-        <v>-64.0627</v>
+        <v>-59.343</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2">
-        <v>24.70289</v>
+        <v>24.9151</v>
       </c>
       <c r="B127" s="2">
-        <v>-62.8374</v>
+        <v>-56.9892</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2">
-        <v>24.88814</v>
+        <v>25.11442</v>
       </c>
       <c r="B128" s="2">
-        <v>-62.5904</v>
+        <v>-56.2359</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2">
-        <v>25.1074</v>
+        <v>25.31339</v>
       </c>
       <c r="B129" s="2">
-        <v>-63.0368</v>
+        <v>-59.4954</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2">
-        <v>25.28776</v>
+        <v>25.51415</v>
       </c>
       <c r="B130" s="2">
-        <v>-63.5039</v>
+        <v>-58.904</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2">
-        <v>25.48787</v>
+        <v>25.71574</v>
       </c>
       <c r="B131" s="2">
-        <v>-62.8715</v>
+        <v>-61.3411</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2">
-        <v>25.70007</v>
+        <v>25.9161</v>
       </c>
       <c r="B132" s="2">
-        <v>-62.4407</v>
+        <v>-59.2331</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2">
-        <v>25.90405</v>
+        <v>26.1097</v>
       </c>
       <c r="B133" s="2">
-        <v>-61.9554</v>
+        <v>-57.7004</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2">
-        <v>26.09704</v>
+        <v>26.31293</v>
       </c>
       <c r="B134" s="2">
-        <v>-61.8667</v>
+        <v>-61.3378</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2">
-        <v>26.29959</v>
+        <v>26.51336</v>
       </c>
       <c r="B135" s="2">
-        <v>-62.1154</v>
+        <v>-61.2083</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2">
-        <v>26.49902</v>
+        <v>26.70981</v>
       </c>
       <c r="B136" s="2">
-        <v>-61.9882</v>
+        <v>-60.8834</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2">
-        <v>26.70381</v>
+        <v>26.91194</v>
       </c>
       <c r="B137" s="2">
-        <v>-62.1532</v>
+        <v>-61.5676</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2">
-        <v>26.88784</v>
+        <v>27.11486</v>
       </c>
       <c r="B138" s="2">
-        <v>-62.9968</v>
+        <v>-63.9749</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2">
-        <v>26.99995</v>
+        <v>27.31149</v>
       </c>
       <c r="B139" s="2">
-        <v>-63.3108</v>
+        <v>-62.552</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2">
-        <v>27.20493</v>
+        <v>27.51434</v>
       </c>
       <c r="B140" s="2">
-        <v>-62.5227</v>
+        <v>-61.0999</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2">
-        <v>27.40104</v>
+        <v>27.65854</v>
       </c>
       <c r="B141" s="2">
-        <v>-62.4053</v>
+        <v>-62.9632</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2">
-        <v>27.58817</v>
-      </c>
-      <c r="B142" s="2">
-        <v>-61.452</v>
-      </c>
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
     </row>
     <row r="143">
-      <c r="A143" s="2">
-        <v>27.80492</v>
-      </c>
-      <c r="B143" s="2">
-        <v>-60.982</v>
-      </c>
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
     </row>
     <row r="144">
-      <c r="A144" s="2">
-        <v>27.99895</v>
-      </c>
-      <c r="B144" s="2">
-        <v>-61.8231</v>
-      </c>
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
     </row>
     <row r="145">
-      <c r="A145" s="2">
-        <v>28.1976</v>
-      </c>
-      <c r="B145" s="2">
-        <v>-60.9591</v>
-      </c>
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
     </row>
     <row r="146">
-      <c r="A146" s="2">
-        <v>28.40992</v>
-      </c>
-      <c r="B146" s="2">
-        <v>-60.8101</v>
-      </c>
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
     </row>
     <row r="147">
-      <c r="A147" s="2">
-        <v>28.6025</v>
-      </c>
-      <c r="B147" s="2">
-        <v>-61.5013</v>
-      </c>
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
     </row>
     <row r="148">
-      <c r="A148" s="2">
-        <v>28.80295</v>
-      </c>
-      <c r="B148" s="2">
-        <v>-60.5273</v>
-      </c>
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
     </row>
     <row r="149">
-      <c r="A149" s="2">
-        <v>29.00318</v>
-      </c>
-      <c r="B149" s="2">
-        <v>-60.9466</v>
-      </c>
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
     </row>
     <row r="150">
-      <c r="A150" s="2">
-        <v>29.18795</v>
-      </c>
-      <c r="B150" s="2">
-        <v>-60.3508</v>
-      </c>
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
     </row>
     <row r="151">
-      <c r="A151" s="2">
-        <v>29.40314</v>
-      </c>
-      <c r="B151" s="2">
-        <v>-60.386</v>
-      </c>
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
     </row>
     <row r="152">
-      <c r="A152" s="2">
-        <v>29.59977</v>
-      </c>
-      <c r="B152" s="2">
-        <v>-62.4763</v>
-      </c>
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
     </row>
     <row r="153">
-      <c r="A153" s="2">
-        <v>29.78807</v>
-      </c>
-      <c r="B153" s="2">
-        <v>-62.8199</v>
-      </c>
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
     </row>
     <row r="154">
-      <c r="A154" s="2">
-        <v>30.01171</v>
-      </c>
-      <c r="B154" s="2">
-        <v>-61.8866</v>
-      </c>
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
     </row>
     <row r="155">
-      <c r="A155" s="2">
-        <v>30.20373</v>
-      </c>
-      <c r="B155" s="2">
-        <v>-62.4601</v>
-      </c>
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
     </row>
     <row r="156">
-      <c r="A156" s="2">
-        <v>30.40296</v>
-      </c>
-      <c r="B156" s="2">
-        <v>-61.9378</v>
-      </c>
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
     </row>
     <row r="157">
-      <c r="A157" s="2">
-        <v>30.60402</v>
-      </c>
-      <c r="B157" s="2">
-        <v>-61.9951</v>
-      </c>
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
     </row>
     <row r="158">
-      <c r="A158" s="2">
-        <v>30.78786</v>
-      </c>
-      <c r="B158" s="2">
-        <v>-61.8813</v>
-      </c>
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
     </row>
     <row r="159">
-      <c r="A159" s="2">
-        <v>30.98833</v>
-      </c>
-      <c r="B159" s="2">
-        <v>-63.0329</v>
-      </c>
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
     </row>
     <row r="160">
-      <c r="A160" s="2">
-        <v>31.19895</v>
-      </c>
-      <c r="B160" s="2">
-        <v>-62.1826</v>
-      </c>
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
     </row>
     <row r="161">
-      <c r="A161" s="2">
-        <v>31.38807</v>
-      </c>
-      <c r="B161" s="2">
-        <v>-61.9671</v>
-      </c>
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
     </row>
     <row r="162">
-      <c r="A162" s="2">
-        <v>31.58878</v>
-      </c>
-      <c r="B162" s="2">
-        <v>-62.8107</v>
-      </c>
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
     </row>
     <row r="163">
-      <c r="A163" s="2">
-        <v>31.80289</v>
-      </c>
-      <c r="B163" s="2">
-        <v>-62.0338</v>
-      </c>
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
     </row>
     <row r="164">
-      <c r="A164" s="2">
-        <v>31.99405</v>
-      </c>
-      <c r="B164" s="2">
-        <v>-62.0244</v>
-      </c>
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
     </row>
     <row r="165">
-      <c r="A165" s="2">
-        <v>32.2033</v>
-      </c>
-      <c r="B165" s="2">
-        <v>-61.9142</v>
-      </c>
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
     </row>
     <row r="166">
-      <c r="A166" s="2">
-        <v>32.38908</v>
-      </c>
-      <c r="B166" s="2">
-        <v>-59.6132</v>
-      </c>
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
     </row>
     <row r="167">
-      <c r="A167" s="2">
-        <v>32.59748</v>
-      </c>
-      <c r="B167" s="2">
-        <v>-60.2565</v>
-      </c>
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
     </row>
     <row r="168">
-      <c r="A168" s="2">
-        <v>32.79719</v>
-      </c>
-      <c r="B168" s="2">
-        <v>-61.3671</v>
-      </c>
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
     </row>
     <row r="169">
-      <c r="A169" s="2">
-        <v>33.00441</v>
-      </c>
-      <c r="B169" s="2">
-        <v>-63.4671</v>
-      </c>
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
     </row>
     <row r="170">
-      <c r="A170" s="2">
-        <v>33.18793</v>
-      </c>
-      <c r="B170" s="2">
-        <v>-63.8651</v>
-      </c>
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
     </row>
     <row r="171">
-      <c r="A171" s="2">
-        <v>33.38855</v>
-      </c>
-      <c r="B171" s="2">
-        <v>-63.8698</v>
-      </c>
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
     </row>
     <row r="172">
-      <c r="A172" s="2">
-        <v>33.5883</v>
-      </c>
-      <c r="B172" s="2">
-        <v>-64.2027</v>
-      </c>
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
     </row>
     <row r="173">
-      <c r="A173" s="2">
-        <v>33.78951</v>
-      </c>
-      <c r="B173" s="2">
-        <v>-64.1654</v>
-      </c>
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
     </row>
     <row r="174">
-      <c r="A174" s="2">
-        <v>33.99768</v>
-      </c>
-      <c r="B174" s="2">
-        <v>-65.0316</v>
-      </c>
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
     </row>
     <row r="175">
-      <c r="A175" s="2">
-        <v>34.21176</v>
-      </c>
-      <c r="B175" s="2">
-        <v>-64.237</v>
-      </c>
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
     </row>
     <row r="176">
-      <c r="A176" s="2">
-        <v>34.40363</v>
-      </c>
-      <c r="B176" s="2">
-        <v>-64.2301</v>
-      </c>
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
     </row>
     <row r="177">
-      <c r="A177" s="2">
-        <v>34.55914</v>
-      </c>
-      <c r="B177" s="2">
-        <v>-62.9788</v>
-      </c>
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1752,7 +1608,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>0.189065</v>
+        <v>0.244689</v>
       </c>
       <c r="B3" s="3" t="e">
         <v>#DIV/0!</v>
@@ -1760,226 +1616,522 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>0.295678</v>
+        <v>0.453941</v>
       </c>
       <c r="B4" s="2">
-        <v>-7.5821</v>
+        <v>-11.7214</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>0.506362</v>
+        <v>0.650657</v>
       </c>
       <c r="B5" s="2">
-        <v>-9.68503</v>
+        <v>-8.95561</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>0.703602</v>
+        <v>0.856449</v>
       </c>
       <c r="B6" s="2">
-        <v>-11.2294</v>
+        <v>-9.08133</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>0.899379</v>
+        <v>1.057208</v>
       </c>
       <c r="B7" s="2">
-        <v>-11.0571</v>
+        <v>-9.17061</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>1.103205</v>
+        <v>1.254845</v>
       </c>
       <c r="B8" s="2">
-        <v>-13.7267</v>
+        <v>-9.22421</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>1.301881</v>
+        <v>1.453857</v>
       </c>
       <c r="B9" s="2">
-        <v>-12.5843</v>
+        <v>-9.62294</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>1.498484</v>
+        <v>1.670743</v>
       </c>
       <c r="B10" s="2">
-        <v>-13.9991</v>
+        <v>-10.1018</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>1.697188</v>
+        <v>1.85283</v>
       </c>
       <c r="B11" s="2">
-        <v>-15.655</v>
+        <v>-10.3666</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>1.905875</v>
+        <v>2.056352</v>
       </c>
       <c r="B12" s="2">
-        <v>-16.5884</v>
+        <v>-10.8133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>2.097919</v>
+        <v>2.250522</v>
       </c>
       <c r="B13" s="2">
-        <v>-16.4305</v>
+        <v>-10.5864</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>2.297617</v>
+        <v>2.454375</v>
       </c>
       <c r="B14" s="2">
-        <v>-17.8734</v>
+        <v>-13.2647</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>2.506031</v>
+        <v>2.654226</v>
       </c>
       <c r="B15" s="2">
-        <v>-19.3537</v>
+        <v>-14.0103</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>2.705807</v>
+        <v>2.855099</v>
       </c>
       <c r="B16" s="2">
-        <v>-21.1511</v>
+        <v>-14.2806</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>2.901941</v>
+        <v>3.05961</v>
       </c>
       <c r="B17" s="2">
-        <v>-22.556</v>
+        <v>-14.301</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>3.106589</v>
+        <v>3.253924</v>
       </c>
       <c r="B18" s="2">
-        <v>-24.7219</v>
+        <v>-15.1432</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>3.300952</v>
+        <v>3.453396</v>
       </c>
       <c r="B19" s="2">
-        <v>-27.0434</v>
+        <v>-17.544</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>3.494114</v>
+        <v>3.653806</v>
       </c>
       <c r="B20" s="2">
-        <v>-26.6622</v>
+        <v>-16.4448</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>3.694366</v>
+        <v>3.850566</v>
       </c>
       <c r="B21" s="2">
-        <v>-32.243</v>
+        <v>-16.6047</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>3.89419</v>
+        <v>4.054461</v>
       </c>
       <c r="B22" s="2">
-        <v>-36.9799</v>
+        <v>-17.3813</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>4.094348</v>
+        <v>4.250637</v>
       </c>
       <c r="B23" s="2">
-        <v>-36.474</v>
+        <v>-17.749</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>4.30348</v>
+        <v>4.462447</v>
       </c>
       <c r="B24" s="2">
-        <v>-38.2676</v>
+        <v>-19.2606</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>4.502221</v>
+        <v>4.653177</v>
       </c>
       <c r="B25" s="2">
-        <v>-41.1672</v>
+        <v>-18.706</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>4.697624</v>
+        <v>4.853908</v>
       </c>
       <c r="B26" s="2">
-        <v>-46.4678</v>
+        <v>-18.6996</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>4.894827</v>
+        <v>5.054861</v>
       </c>
       <c r="B27" s="2">
-        <v>-46.2348</v>
+        <v>-20.6952</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>5.105328</v>
+        <v>5.257046</v>
       </c>
       <c r="B28" s="2">
-        <v>-55.5349</v>
+        <v>-21.9093</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>5.297026</v>
+        <v>5.452097</v>
       </c>
       <c r="B29" s="2">
-        <v>-65.1737</v>
+        <v>-21.1752</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>5.506885</v>
+        <v>5.653215</v>
       </c>
       <c r="B30" s="2">
-        <v>-63.6963</v>
+        <v>-20.4692</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>5.694199</v>
+        <v>5.850691</v>
       </c>
       <c r="B31" s="2">
-        <v>-64.8748</v>
+        <v>-21.1176</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2">
+        <v>6.056863</v>
+      </c>
+      <c r="B32" s="2">
+        <v>-27.1952</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>6.257105</v>
+      </c>
+      <c r="B33" s="2">
+        <v>-26.5092</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2">
+        <v>6.454051</v>
+      </c>
+      <c r="B34" s="2">
+        <v>-25.632</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>6.654204</v>
+      </c>
+      <c r="B35" s="2">
+        <v>-24.3787</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>6.849187</v>
+      </c>
+      <c r="B36" s="2">
+        <v>-26.0251</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>7.056182</v>
+      </c>
+      <c r="B37" s="2">
+        <v>-28.5817</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>7.250618</v>
+      </c>
+      <c r="B38" s="2">
+        <v>-30.8839</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>7.455534</v>
+      </c>
+      <c r="B39" s="2">
+        <v>-29.1016</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2">
+        <v>7.65738</v>
+      </c>
+      <c r="B40" s="2">
+        <v>-31.2332</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>7.854316</v>
+      </c>
+      <c r="B41" s="2">
+        <v>-34.0753</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>8.056951</v>
+      </c>
+      <c r="B42" s="2">
+        <v>-36.1869</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>8.253447</v>
+      </c>
+      <c r="B43" s="2">
+        <v>-36.8623</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2">
+        <v>8.457053</v>
+      </c>
+      <c r="B44" s="2">
+        <v>-38.4188</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>8.653092</v>
+      </c>
+      <c r="B45" s="2">
+        <v>-39.0709</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2">
+        <v>8.850562</v>
+      </c>
+      <c r="B46" s="2">
+        <v>-39.0227</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>9.055374</v>
+      </c>
+      <c r="B47" s="2">
+        <v>-40.1655</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2">
+        <v>9.254469</v>
+      </c>
+      <c r="B48" s="2">
+        <v>-41.0106</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2">
+        <v>9.454526</v>
+      </c>
+      <c r="B49" s="2">
+        <v>-43.6725</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2">
+        <v>9.655057</v>
+      </c>
+      <c r="B50" s="2">
+        <v>-41.9541</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2">
+        <v>9.854925</v>
+      </c>
+      <c r="B51" s="2">
+        <v>-47.615</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2">
+        <v>10.05053</v>
+      </c>
+      <c r="B52" s="2">
+        <v>-47.1083</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2">
+        <v>10.25298</v>
+      </c>
+      <c r="B53" s="2">
+        <v>-48.2648</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2">
+        <v>10.4553</v>
+      </c>
+      <c r="B54" s="2">
+        <v>-51.7155</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2">
+        <v>10.65604</v>
+      </c>
+      <c r="B55" s="2">
+        <v>-49.9157</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>10.85517</v>
+      </c>
+      <c r="B56" s="2">
+        <v>-49.8002</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2">
+        <v>11.05064</v>
+      </c>
+      <c r="B57" s="2">
+        <v>-52.978</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2">
+        <v>11.25589</v>
+      </c>
+      <c r="B58" s="2">
+        <v>-55.2784</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2">
+        <v>11.45048</v>
+      </c>
+      <c r="B59" s="2">
+        <v>-60.1505</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2">
+        <v>11.65558</v>
+      </c>
+      <c r="B60" s="2">
+        <v>-59.4194</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2">
+        <v>11.85519</v>
+      </c>
+      <c r="B61" s="2">
+        <v>-59.6136</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2">
+        <v>12.05054</v>
+      </c>
+      <c r="B62" s="2">
+        <v>-58.96</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2">
+        <v>12.25753</v>
+      </c>
+      <c r="B63" s="2">
+        <v>-58.1164</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2">
+        <v>12.45483</v>
+      </c>
+      <c r="B64" s="2">
+        <v>-59.4802</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2">
+        <v>12.65499</v>
+      </c>
+      <c r="B65" s="2">
+        <v>-59.1011</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2">
+        <v>12.85064</v>
+      </c>
+      <c r="B66" s="2">
+        <v>-58.3503</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2">
+        <v>13.05959</v>
+      </c>
+      <c r="B67" s="2">
+        <v>-57.8419</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2">
+        <v>13.13006</v>
+      </c>
+      <c r="B68" s="2">
+        <v>-57.8419</v>
       </c>
     </row>
   </sheetData>
@@ -2015,7 +2167,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>0.268136</v>
+        <v>0.262098</v>
       </c>
       <c r="B3" s="3" t="e">
         <v>#DIV/0!</v>
@@ -2023,866 +2175,890 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>0.373477</v>
+        <v>0.36886</v>
       </c>
       <c r="B4" s="2">
-        <v>-5.69011</v>
+        <v>-11.4544</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>0.58284</v>
+        <v>0.571855</v>
       </c>
       <c r="B5" s="2">
-        <v>-10.6731</v>
+        <v>-11.2164</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>0.775029</v>
+        <v>0.77067</v>
       </c>
       <c r="B6" s="2">
-        <v>-11.9317</v>
+        <v>-12.2407</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>0.987385</v>
+        <v>0.969203</v>
       </c>
       <c r="B7" s="2">
-        <v>-11.8271</v>
+        <v>-12.7059</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>1.173485</v>
+        <v>1.171036</v>
       </c>
       <c r="B8" s="2">
-        <v>-10.9464</v>
+        <v>-12.961</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>1.37619</v>
+        <v>1.370798</v>
       </c>
       <c r="B9" s="2">
-        <v>-13.8611</v>
+        <v>-13.1946</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>1.576411</v>
+        <v>1.573002</v>
       </c>
       <c r="B10" s="2">
-        <v>-13.2185</v>
+        <v>-12.9043</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>1.773815</v>
+        <v>1.77043</v>
       </c>
       <c r="B11" s="2">
-        <v>-17.1823</v>
+        <v>-13.7588</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>1.981913</v>
+        <v>1.970295</v>
       </c>
       <c r="B12" s="2">
-        <v>-18.1657</v>
+        <v>-14.0409</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>2.187074</v>
+        <v>2.170815</v>
       </c>
       <c r="B13" s="2">
-        <v>-28.0137</v>
+        <v>-14.3175</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>2.386384</v>
+        <v>2.37229</v>
       </c>
       <c r="B14" s="2">
-        <v>-28.4994</v>
+        <v>-14.3188</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>2.58735</v>
+        <v>2.571435</v>
       </c>
       <c r="B15" s="2">
-        <v>-23.2369</v>
+        <v>-14.2947</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>2.780596</v>
+        <v>2.772701</v>
       </c>
       <c r="B16" s="2">
-        <v>-17.8519</v>
+        <v>-14.205</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>2.98056</v>
+        <v>2.978203</v>
       </c>
       <c r="B17" s="2">
-        <v>-20.8677</v>
+        <v>-14.106</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>3.177091</v>
+        <v>3.172337</v>
       </c>
       <c r="B18" s="2">
-        <v>-15.704</v>
+        <v>-14.239</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>3.381625</v>
+        <v>3.37123</v>
       </c>
       <c r="B19" s="2">
-        <v>-14.4858</v>
+        <v>-14.3121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>3.574069</v>
+        <v>3.572777</v>
       </c>
       <c r="B20" s="2">
-        <v>-18.2955</v>
+        <v>-13.3887</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>3.786155</v>
+        <v>3.771014</v>
       </c>
       <c r="B21" s="2">
-        <v>-13.7944</v>
+        <v>-15.9356</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>3.988034</v>
+        <v>3.970749</v>
       </c>
       <c r="B22" s="2">
-        <v>-13.8863</v>
+        <v>-16.672</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>4.175574</v>
+        <v>4.170825</v>
       </c>
       <c r="B23" s="2">
-        <v>-14.2072</v>
+        <v>-16.8256</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>4.37678</v>
+        <v>4.379438</v>
       </c>
       <c r="B24" s="2">
-        <v>-13.3719</v>
+        <v>-17.3057</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>4.587494</v>
+        <v>4.571387</v>
       </c>
       <c r="B25" s="2">
-        <v>-13.754</v>
+        <v>-16.9323</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>4.773531</v>
+        <v>4.772649</v>
       </c>
       <c r="B26" s="2">
-        <v>-14.2182</v>
+        <v>-15.7934</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>4.987221</v>
+        <v>4.968869</v>
       </c>
       <c r="B27" s="2">
-        <v>-15.2306</v>
+        <v>-16.7704</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>5.174239</v>
+        <v>5.171147</v>
       </c>
       <c r="B28" s="2">
-        <v>-16.5814</v>
+        <v>-17.9929</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>5.386967</v>
+        <v>5.370694</v>
       </c>
       <c r="B29" s="2">
-        <v>-18.061</v>
+        <v>-18.6396</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>5.589181</v>
+        <v>5.573552</v>
       </c>
       <c r="B30" s="2">
-        <v>-18.8924</v>
+        <v>-18.5753</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>5.787317</v>
+        <v>5.768337</v>
       </c>
       <c r="B31" s="2">
-        <v>-18.8531</v>
+        <v>-18.4633</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>5.973555</v>
+        <v>5.970762</v>
       </c>
       <c r="B32" s="2">
-        <v>-19.0754</v>
+        <v>-18.2371</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>6.187213</v>
+        <v>6.170702</v>
       </c>
       <c r="B33" s="2">
-        <v>-19.0877</v>
+        <v>-17.9777</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>6.387749</v>
+        <v>6.37075</v>
       </c>
       <c r="B34" s="2">
-        <v>-18.9866</v>
+        <v>-17.3798</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>6.580769</v>
+        <v>6.572075</v>
       </c>
       <c r="B35" s="2">
-        <v>-18.4212</v>
+        <v>-16.8414</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>6.778531</v>
+        <v>6.770451</v>
       </c>
       <c r="B36" s="2">
-        <v>-20.0666</v>
+        <v>-16.9628</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>6.990207</v>
+        <v>6.971137</v>
       </c>
       <c r="B37" s="2">
-        <v>-20.5481</v>
+        <v>-17.7079</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>7.188044</v>
+        <v>7.179564</v>
       </c>
       <c r="B38" s="2">
-        <v>-20.8014</v>
+        <v>-18.4099</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>7.386747</v>
+        <v>7.368596</v>
       </c>
       <c r="B39" s="2">
-        <v>-20.5787</v>
+        <v>-18.8362</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>7.573788</v>
+        <v>7.571524</v>
       </c>
       <c r="B40" s="2">
-        <v>-20.1052</v>
+        <v>-19.4535</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>7.773415</v>
+        <v>7.768496</v>
       </c>
       <c r="B41" s="2">
-        <v>-19.6912</v>
+        <v>-19.6292</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>7.987242</v>
+        <v>7.968315</v>
       </c>
       <c r="B42" s="2">
-        <v>-20.029</v>
+        <v>-19.6854</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>8.186482</v>
+        <v>8.171797</v>
       </c>
       <c r="B43" s="2">
-        <v>-22.9788</v>
+        <v>-20.3089</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>8.391582</v>
+        <v>8.370129</v>
       </c>
       <c r="B44" s="2">
-        <v>-24.967</v>
+        <v>-21.1075</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>8.582254</v>
+        <v>8.578057</v>
       </c>
       <c r="B45" s="2">
-        <v>-25.5472</v>
+        <v>-21.5133</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>8.786148</v>
+        <v>8.768259</v>
       </c>
       <c r="B46" s="2">
-        <v>-26.1673</v>
+        <v>-21.6423</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>8.988379</v>
+        <v>8.97139</v>
       </c>
       <c r="B47" s="2">
-        <v>-26.3736</v>
+        <v>-21.2901</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>9.173475</v>
+        <v>9.17215</v>
       </c>
       <c r="B48" s="2">
-        <v>-25.3233</v>
+        <v>-20.7517</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>9.386054</v>
+        <v>9.368674</v>
       </c>
       <c r="B49" s="2">
-        <v>-25.2541</v>
+        <v>-20.9789</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>9.587666</v>
+        <v>9.571751</v>
       </c>
       <c r="B50" s="2">
-        <v>-25.8373</v>
+        <v>-21.3941</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>9.7867</v>
+        <v>9.770588</v>
       </c>
       <c r="B51" s="2">
-        <v>-25.62</v>
+        <v>-22.27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>9.987</v>
+        <v>9.968412</v>
       </c>
       <c r="B52" s="2">
-        <v>-24.9774</v>
+        <v>-23.5095</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>10.17402</v>
+        <v>10.17209</v>
       </c>
       <c r="B53" s="2">
-        <v>-25.1022</v>
+        <v>-23.8312</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>10.37354</v>
+        <v>10.37092</v>
       </c>
       <c r="B54" s="2">
-        <v>-25.3106</v>
+        <v>-24.499</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>10.58548</v>
+        <v>10.57161</v>
       </c>
       <c r="B55" s="2">
-        <v>-25.5755</v>
+        <v>-24.3314</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>10.77284</v>
+        <v>10.76833</v>
       </c>
       <c r="B56" s="2">
-        <v>-25.3774</v>
+        <v>-25.0521</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>10.97361</v>
+        <v>10.96839</v>
       </c>
       <c r="B57" s="2">
-        <v>-25.8279</v>
+        <v>-25.3462</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>11.1813</v>
+        <v>11.17052</v>
       </c>
       <c r="B58" s="2">
-        <v>-25.7609</v>
+        <v>-25.5906</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>11.38782</v>
+        <v>11.36869</v>
       </c>
       <c r="B59" s="2">
-        <v>-30.1589</v>
+        <v>-27.5442</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>11.58679</v>
+        <v>11.57064</v>
       </c>
       <c r="B60" s="2">
-        <v>-33.3284</v>
+        <v>-26.6385</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>11.78804</v>
+        <v>11.77073</v>
       </c>
       <c r="B61" s="2">
-        <v>-34.0348</v>
+        <v>-26.929</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>11.98653</v>
+        <v>11.97079</v>
       </c>
       <c r="B62" s="2">
-        <v>-30.1433</v>
+        <v>-27.6627</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>12.18736</v>
+        <v>12.17144</v>
       </c>
       <c r="B63" s="2">
-        <v>-30.0994</v>
+        <v>-25.9975</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>12.37187</v>
+        <v>12.37124</v>
       </c>
       <c r="B64" s="2">
-        <v>-29.1319</v>
+        <v>-25.8628</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>12.58188</v>
+        <v>12.56905</v>
       </c>
       <c r="B65" s="2">
-        <v>-30.4263</v>
+        <v>-25.022</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>12.78643</v>
+        <v>12.76857</v>
       </c>
       <c r="B66" s="2">
-        <v>-33.3216</v>
+        <v>-25.3542</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>12.98148</v>
+        <v>12.97067</v>
       </c>
       <c r="B67" s="2">
-        <v>-37.0085</v>
+        <v>-26.2499</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>13.18102</v>
+        <v>13.17067</v>
       </c>
       <c r="B68" s="2">
-        <v>-34.8487</v>
+        <v>-26.6002</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>13.3818</v>
+        <v>13.37105</v>
       </c>
       <c r="B69" s="2">
-        <v>-34.5486</v>
+        <v>-28.0427</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>13.58646</v>
+        <v>13.57199</v>
       </c>
       <c r="B70" s="2">
-        <v>-32.9751</v>
+        <v>-28.3551</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>13.79764</v>
+        <v>13.7707</v>
       </c>
       <c r="B71" s="2">
-        <v>-32.56</v>
+        <v>-28.9139</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>13.98734</v>
+        <v>13.97758</v>
       </c>
       <c r="B72" s="2">
-        <v>-34.6236</v>
+        <v>-29.5054</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>14.18253</v>
+        <v>14.16887</v>
       </c>
       <c r="B73" s="2">
-        <v>-32.0975</v>
+        <v>-29.8849</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>14.38749</v>
+        <v>14.37072</v>
       </c>
       <c r="B74" s="2">
-        <v>-33.7645</v>
+        <v>-29.3883</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>14.58689</v>
+        <v>14.57106</v>
       </c>
       <c r="B75" s="2">
-        <v>-34.9156</v>
+        <v>-29.0206</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <v>14.78151</v>
+        <v>14.77094</v>
       </c>
       <c r="B76" s="2">
-        <v>-34.0314</v>
+        <v>-30.5434</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>14.97346</v>
+        <v>14.971</v>
       </c>
       <c r="B77" s="2">
-        <v>-32.6976</v>
+        <v>-31.216</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <v>15.18645</v>
+        <v>15.17089</v>
       </c>
       <c r="B78" s="2">
-        <v>-32.6409</v>
+        <v>-30.2937</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <v>15.38632</v>
+        <v>15.37091</v>
       </c>
       <c r="B79" s="2">
-        <v>-33.3179</v>
+        <v>-30.8187</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>15.58682</v>
+        <v>15.56837</v>
       </c>
       <c r="B80" s="2">
-        <v>-35.4191</v>
+        <v>-30.5868</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>15.7735</v>
+        <v>15.77104</v>
       </c>
       <c r="B81" s="2">
-        <v>-38.9606</v>
+        <v>-32.936</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>15.98757</v>
+        <v>15.97076</v>
       </c>
       <c r="B82" s="2">
-        <v>-38.5781</v>
+        <v>-35.0976</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <v>16.18677</v>
+        <v>16.17048</v>
       </c>
       <c r="B83" s="2">
-        <v>-37.9372</v>
+        <v>-35.6463</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <v>16.38661</v>
+        <v>16.36831</v>
       </c>
       <c r="B84" s="2">
-        <v>-37.7461</v>
+        <v>-34.9063</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2">
-        <v>16.58675</v>
+        <v>16.57116</v>
       </c>
       <c r="B85" s="2">
-        <v>-38.9981</v>
+        <v>-34.3733</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2">
-        <v>16.78108</v>
+        <v>16.7706</v>
       </c>
       <c r="B86" s="2">
-        <v>-36.3401</v>
+        <v>-35.7344</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2">
-        <v>16.97623</v>
+        <v>16.96837</v>
       </c>
       <c r="B87" s="2">
-        <v>-40.1657</v>
+        <v>-35.7753</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2">
-        <v>17.18071</v>
+        <v>17.17099</v>
       </c>
       <c r="B88" s="2">
-        <v>-40.4772</v>
+        <v>-34.8644</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2">
-        <v>17.37346</v>
+        <v>17.37095</v>
       </c>
       <c r="B89" s="2">
-        <v>-40.7107</v>
+        <v>-34.179</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2">
-        <v>17.58632</v>
+        <v>17.57097</v>
       </c>
       <c r="B90" s="2">
-        <v>-44.2778</v>
+        <v>-35.3473</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2">
-        <v>17.78326</v>
+        <v>17.77069</v>
       </c>
       <c r="B91" s="2">
-        <v>-40.7457</v>
+        <v>-36.4126</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2">
-        <v>17.98289</v>
+        <v>17.97126</v>
       </c>
       <c r="B92" s="2">
-        <v>-42.9338</v>
+        <v>-37.9411</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2">
-        <v>18.18797</v>
+        <v>18.17107</v>
       </c>
       <c r="B93" s="2">
-        <v>-43.0717</v>
+        <v>-38.0757</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2">
-        <v>18.38749</v>
+        <v>18.36839</v>
       </c>
       <c r="B94" s="2">
-        <v>-43.7709</v>
+        <v>-39.3355</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2">
-        <v>18.58689</v>
+        <v>18.57129</v>
       </c>
       <c r="B95" s="2">
-        <v>-40.8048</v>
+        <v>-40.3385</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2">
-        <v>18.78119</v>
+        <v>18.77086</v>
       </c>
       <c r="B96" s="2">
-        <v>-43.5045</v>
+        <v>-39.7274</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
-        <v>18.97355</v>
+        <v>18.97052</v>
       </c>
       <c r="B97" s="2">
-        <v>-44.3857</v>
+        <v>-41.5677</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2">
-        <v>19.17361</v>
+        <v>19.17142</v>
       </c>
       <c r="B98" s="2">
-        <v>-47.1401</v>
+        <v>-41.4283</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2">
-        <v>19.37357</v>
+        <v>19.37114</v>
       </c>
       <c r="B99" s="2">
-        <v>-46.8264</v>
+        <v>-41.0567</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2">
-        <v>19.57811</v>
+        <v>19.57122</v>
       </c>
       <c r="B100" s="2">
-        <v>-45.5673</v>
+        <v>-41.9358</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2">
-        <v>19.78736</v>
+        <v>19.76902</v>
       </c>
       <c r="B101" s="2">
-        <v>-46.1089</v>
+        <v>-42.8674</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2">
-        <v>19.9786</v>
+        <v>19.9713</v>
       </c>
       <c r="B102" s="2">
-        <v>-50.7372</v>
+        <v>-44.4788</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2">
-        <v>20.18628</v>
+        <v>20.17094</v>
       </c>
       <c r="B103" s="2">
-        <v>-52.5692</v>
+        <v>-45.3252</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2">
-        <v>20.38668</v>
+        <v>20.37107</v>
       </c>
       <c r="B104" s="2">
-        <v>-51.8716</v>
+        <v>-47.7878</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2">
-        <v>20.5872</v>
+        <v>20.57182</v>
       </c>
       <c r="B105" s="2">
-        <v>-52.5709</v>
+        <v>-50.5395</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2">
-        <v>20.7862</v>
+        <v>20.7709</v>
       </c>
       <c r="B106" s="2">
-        <v>-54.2353</v>
+        <v>-52.4819</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2">
-        <v>20.98701</v>
+        <v>20.97362</v>
       </c>
       <c r="B107" s="2">
-        <v>-57.8717</v>
+        <v>-57.7726</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2">
-        <v>21.18216</v>
+        <v>21.16846</v>
       </c>
       <c r="B108" s="2">
-        <v>-60.7743</v>
+        <v>-62.8316</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2">
-        <v>21.38645</v>
+        <v>21.37072</v>
       </c>
       <c r="B109" s="2">
-        <v>-60.9745</v>
+        <v>-60.0189</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2">
-        <v>21.57746</v>
+        <v>21.57144</v>
       </c>
       <c r="B110" s="2">
-        <v>-56.6542</v>
+        <v>-62.181</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2">
-        <v>21.62311</v>
+        <v>21.77083</v>
       </c>
       <c r="B111" s="2">
-        <v>-56.6542</v>
+        <v>-61.0392</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2">
+        <v>21.96837</v>
+      </c>
+      <c r="B112" s="2">
+        <v>-60.8765</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2">
+        <v>22.17095</v>
+      </c>
+      <c r="B113" s="2">
+        <v>-60.3182</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2">
+        <v>22.36433</v>
+      </c>
+      <c r="B114" s="2">
+        <v>-60.6758</v>
       </c>
     </row>
   </sheetData>
